--- a/Feature's list.xlsx
+++ b/Feature's list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsantiago\Documents\GustavoPersonal\Administration-Help-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9628556B-EFEE-4252-A0D3-9D931428AE04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA2F359-47E1-447A-8335-73B32A01E2F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>Controle de estoque</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Simulador de precos</t>
   </si>
   <si>
-    <t>Catalogo de clientes</t>
-  </si>
-  <si>
     <t>* Divisao (equipamentos, consumiveis, venda)</t>
   </si>
   <si>
@@ -215,6 +212,24 @@
   </si>
   <si>
     <t>Visitas</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>Caminho para Imagem</t>
+  </si>
+  <si>
+    <t>Permissao</t>
+  </si>
+  <si>
+    <t>Catalogo de clientes / Planos</t>
   </si>
 </sst>
 </file>
@@ -629,7 +644,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,86 +666,86 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -741,10 +756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB4AC5-71D3-4CCC-8A64-BC0F2A79EBDC}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,175 +772,194 @@
     <col min="6" max="6" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="H1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="I6" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F9" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Feature's list.xlsx
+++ b/Feature's list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsantiago\Documents\GustavoPersonal\Administration-Help-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA2F359-47E1-447A-8335-73B32A01E2F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E568A08F-80A6-4431-A392-447933BC1552}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>Controle de estoque</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Catalogo de clientes / Planos</t>
+  </si>
+  <si>
+    <t>Concluido</t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,6 +944,9 @@
       <c r="B7" s="8" t="s">
         <v>53</v>
       </c>
+      <c r="D7" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="F7" s="8" t="s">
         <v>47</v>
       </c>

--- a/Feature's list.xlsx
+++ b/Feature's list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsantiago\Documents\GustavoPersonal\Administration-Help-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E568A08F-80A6-4431-A392-447933BC1552}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB13FCD6-079F-4F17-8F8F-9DAEBDF8190D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -762,7 +762,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Feature's list.xlsx
+++ b/Feature's list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsantiago\Documents\GustavoPersonal\Administration-Help-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB13FCD6-079F-4F17-8F8F-9DAEBDF8190D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787BADC0-2C26-4554-829B-467F36FC7076}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -762,7 +762,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Feature's list.xlsx
+++ b/Feature's list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsantiago\Documents\GustavoPersonal\Administration-Help-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787BADC0-2C26-4554-829B-467F36FC7076}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9023E750-B922-45C3-9476-4EFB6146A1F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="1" r:id="rId1"/>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,7 +656,7 @@
     <col min="2" max="2" width="25.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.109375" style="3" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -761,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB4AC5-71D3-4CCC-8A64-BC0F2A79EBDC}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
